--- a/Assessment31/src/test/resources/testdata/testdata.xlsx
+++ b/Assessment31/src/test/resources/testdata/testdata.xlsx
@@ -4,53 +4,100 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21465" windowHeight="7410"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
-    <sheet name="PolicyDateEvaluation" sheetId="1" r:id="rId1"/>
+    <sheet name="BookingHotels" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:A3"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Test ID 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Input</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2019-10-26</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+  <si>
+    <t>Row name\Column name</t>
+  </si>
+  <si>
+    <t>CityName</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>NoOfAdults</t>
+  </si>
+  <si>
+    <t>NoOfChild</t>
+  </si>
+  <si>
+    <t>NoOfChildInHotelResults</t>
+  </si>
+  <si>
+    <t>NoOfStarRating</t>
+  </si>
+  <si>
+    <t>NoofMembers</t>
+  </si>
+  <si>
+    <t>CheckInDate</t>
+  </si>
+  <si>
+    <t>CheckOutDate</t>
+  </si>
+  <si>
+    <t>HotelAddress</t>
+  </si>
+  <si>
+    <t>LowestPriceHotelName</t>
+  </si>
+  <si>
+    <t>HotelResultsPageTitle</t>
+  </si>
+  <si>
+    <t>HotelDestination</t>
+  </si>
+  <si>
+    <t>NumberOfDaysToStay</t>
+  </si>
+  <si>
+    <t>TestDataDetails</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>PHPTRAVELS | Travel Technology Partner</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2019-12-05</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2019-12-26</t>
-  </si>
-  <si>
-    <t>2019-10-29</t>
-  </si>
-  <si>
-    <t>2019-12-01</t>
-  </si>
-  <si>
-    <t>2020-02-29</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>place #52 &amp; 56, Hosur Main Road SHOW ON MAP</t>
+  </si>
+  <si>
+    <t>Gardeenia Comfortes</t>
+  </si>
+  <si>
+    <t>Hotels Results</t>
+  </si>
+  <si>
+    <t>india,bangalore</t>
   </si>
 </sst>
 </file>
@@ -58,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -80,9 +127,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,62 +164,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,36 +233,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -200,23 +248,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,7 +272,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,25 +302,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,31 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,122 +456,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -426,34 +467,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,10 +498,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,16 +521,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,24 +553,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,137 +584,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,22 +1035,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.1428571428571" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="22.8571428571429" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.8571428571429" collapsed="false"/>
+    <col min="1" max="1" width="23.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="37.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="12.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1032,20 +1061,100 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
